--- a/data/trans_dic/P2404-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2404-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2404-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2404-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>1,41; 6,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>3,02; 8,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>1,16; 5,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>1,73; 4,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>1,82; 4,74</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>1,8; 5,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,74; 2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,78; 4,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>0,39; 2,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>0,51; 2,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0,38; 2,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>1,32; 3,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,75; 2,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>1,15; 3,06</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>1,78; 5,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>1,44; 5,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,97; 3,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,72; 2,59</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>1,06; 4,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>3,74; 7,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>2,15; 6,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>0,39; 3,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>0,13; 1,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>0,4; 3,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,02; 3,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,09; 4,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,57; 3,99</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>0,43; 3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>0,44; 4,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0; 0,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>0,43; 2,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,22; 1,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>0,72; 4,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,17; 1,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0,37; 2,31</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,31; 2,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>1,99; 5,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>1,03; 3,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,14; 1,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,44; 2,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,16; 1,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,25; 2,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,92; 2,28</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>1,85; 4,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,79; 3,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,04; 3,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,4; 1,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,31; 2,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,43; 1,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,56; 1,6</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,8; 2,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,83; 3,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,0; 3,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,65; 1,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,28; 0,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,42; 1,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,29; 1,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,16; 1,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,28; 1,91</t>
         </is>
       </c>
     </row>
